--- a/data/SA_observed_data_Fin.xlsx
+++ b/data/SA_observed_data_Fin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mudime\Documents\Research\COVID-19_Model\covasim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B4B6A1-FF94-48E5-B301-B2BA800E5A7A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7432FE7D-C810-4CB2-92C9-E3B9C29E5089}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C084D696-E2DA-4A9F-BB83-461BC2357210}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>new_tests</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>ventilation</t>
+  </si>
+  <si>
+    <t>doubling_time</t>
   </si>
 </sst>
 </file>
@@ -144,6 +147,1061 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tests data'!$R$13:$R$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5665672040706866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7520798094460046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1737994068771402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.977332957520368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8394411414422458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9803784907762485</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6198636985456596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3545064650582526</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1681150205645694</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0206947833078304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8182192216303936</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1566678418241998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4395241230947065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4173673473868216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6214130425167554</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7593421535923182</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.9993581865642716</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2929655273738696</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5101449006162166</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.3592748180656375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.198818139406129</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.554864376545668</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.206939323882381</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.550282040530149</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.041272062647334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.15214673987947</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.221404568235689</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.488475853881784</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.77160275189191</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.788502003766787</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.295196424253421</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.053468360677384</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.985153027881495</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.28234270282589</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.122302810451643</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.651162559586037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.066295221564761</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.144419444326676</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.020900041630787</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.526064584708621</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.464721190948609</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.378480821692012</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.22339547010225</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.91888861004445</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.162897219258863</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.684336410289731</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.324275413935567</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13.784337233629854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.056792374207923</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.227218134780866</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.302448236690365</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.313208430159378</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.847408680079626</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.211854099263768</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.490585732104901</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.060940395047524</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.010707007677633</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13.364905564314144</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.259876603547228</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.789656643917166</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.785725378638382</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.788331555578743</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15.841372114671682</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.116818232509175</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15.501875085654948</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17.399144377709408</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.656198237683601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD8F-4A96-B08E-989F5569D1A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="483197744"/>
+        <c:axId val="483198728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="483197744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483198728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483198728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483197744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>997324</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>138953</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63F1650-DF06-43D3-9DA3-7F98314A72CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,13 +1501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D113E31-1FBD-4F5A-896C-0A0D0CADEF31}">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:S115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J88" sqref="J88"/>
+      <selection pane="bottomRight" activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +1525,7 @@
     <col min="16" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -516,8 +1574,11 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43891</v>
       </c>
@@ -538,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43892</v>
       </c>
@@ -591,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43893</v>
       </c>
@@ -644,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43894</v>
       </c>
@@ -675,8 +1736,12 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" t="e">
+        <f>IF((E5/E2)&gt;1,3*0.301029995/LOG(E5/E2),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43895</v>
       </c>
@@ -707,8 +1772,12 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <f>IF((E6/E3)&gt;1,3*0.301029995/LOG(E6/E3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43896</v>
       </c>
@@ -760,8 +1829,16 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <f t="shared" ref="R7:R69" si="3">IF((E7/E4)&gt;1,3*0.301029995/LOG(E7/E4),0)</f>
+        <v>10.478365839261361</v>
+      </c>
+      <c r="S7" t="e">
+        <f>IF((E7/E2)&gt;1,5*0.301029995/LOG(E7/E2),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43897</v>
       </c>
@@ -813,8 +1890,16 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S71" si="4">IF((E8/E3)&gt;1,5*0.301029995/LOG(E8/E3),0)</f>
+        <v>8.4607917392552796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43898</v>
       </c>
@@ -845,8 +1930,16 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43899</v>
       </c>
@@ -877,8 +1970,16 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43900</v>
       </c>
@@ -909,8 +2010,16 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43901</v>
       </c>
@@ -962,8 +2071,16 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>2.9598073010261685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43902</v>
       </c>
@@ -1015,8 +2132,16 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>2.7547736997275645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43903</v>
       </c>
@@ -1068,8 +2193,16 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43904</v>
       </c>
@@ -1121,8 +2254,16 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>4.5665672040706866</v>
+      </c>
+      <c r="S15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43905</v>
       </c>
@@ -1174,8 +2315,16 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>3.7520798094460046</v>
+      </c>
+      <c r="S16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>43906</v>
       </c>
@@ -1227,8 +2376,16 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>2.1737994068771402</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>2.6334281232233092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43907</v>
       </c>
@@ -1280,8 +2437,16 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>1.977332957520368</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>2.8099696115886985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43908</v>
       </c>
@@ -1333,8 +2498,16 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>2.8394411414422458</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>2.8863795686787332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43909</v>
       </c>
@@ -1386,8 +2559,16 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>2.9803784907762485</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>2.2239017321566603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43910</v>
       </c>
@@ -1439,8 +2620,16 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>2.6198636985456596</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>2.3530299160340022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43911</v>
       </c>
@@ -1492,8 +2681,16 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>2.3545064650582526</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>3.0743611682374619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43912</v>
       </c>
@@ -1545,8 +2742,16 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>3.1681150205645694</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>2.9796650966355358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43913</v>
       </c>
@@ -1598,8 +2803,16 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>3.0206947833078304</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>2.4253914159794712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43914</v>
       </c>
@@ -1651,8 +2864,16 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>2.8182192216303936</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>2.9686406339680258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43915</v>
       </c>
@@ -1704,8 +2925,16 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>3.1566678418241998</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>3.3708340238771828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43916</v>
       </c>
@@ -1757,8 +2986,16 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>4.4395241230947065</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>3.4173578440770123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>43917</v>
       </c>
@@ -1810,8 +3047,16 @@
       <c r="Q28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>3.4173673473868216</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>3.0955803658477499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43918</v>
       </c>
@@ -1863,8 +3108,16 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>3.6214130425167554</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>3.7919886482292933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43919</v>
       </c>
@@ -1916,8 +3169,16 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>3.7593421535923182</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>4.178405861335639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43920</v>
       </c>
@@ -1969,8 +3230,16 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>6.9993581865642716</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>4.5726932526048856</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43921</v>
       </c>
@@ -2022,8 +3291,16 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>8.2929655273738696</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>4.9772359935346859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43922</v>
       </c>
@@ -2075,8 +3352,16 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>9.5101449006162166</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>7.88379329343738</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43923</v>
       </c>
@@ -2128,8 +3413,16 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>9.3592748180656375</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>8.5385541461083267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43924</v>
       </c>
@@ -2181,8 +3474,16 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35">
+        <f t="shared" si="3"/>
+        <v>10.198818139406129</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="4"/>
+        <v>9.9857524440993846</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43925</v>
       </c>
@@ -2234,8 +3535,16 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36">
+        <f t="shared" si="3"/>
+        <v>10.554864376545668</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="4"/>
+        <v>10.207604744398566</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43926</v>
       </c>
@@ -2287,8 +3596,16 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>12.206939323882381</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="4"/>
+        <v>10.647615505901836</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43927</v>
       </c>
@@ -2340,8 +3657,16 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>14.550282040530149</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="4"/>
+        <v>12.773272746598554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43928</v>
       </c>
@@ -2393,8 +3718,16 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>17.041272062647334</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="4"/>
+        <v>14.478635066292574</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43929</v>
       </c>
@@ -2446,8 +3779,16 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>18.15214673987947</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="4"/>
+        <v>14.675379764688639</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43930</v>
       </c>
@@ -2499,8 +3840,16 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>12.221404568235689</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="4"/>
+        <v>14.176989443784612</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>43931</v>
       </c>
@@ -2552,8 +3901,16 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42">
+        <f t="shared" si="3"/>
+        <v>11.488475853881784</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="4"/>
+        <v>13.86171169398423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43932</v>
       </c>
@@ -2605,8 +3962,16 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43">
+        <f t="shared" si="3"/>
+        <v>12.77160275189191</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="4"/>
+        <v>13.534684665953868</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43933</v>
       </c>
@@ -2658,8 +4023,16 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44">
+        <f t="shared" si="3"/>
+        <v>13.788502003766787</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="4"/>
+        <v>12.683480034240786</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43934</v>
       </c>
@@ -2713,8 +4086,16 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45">
+        <f t="shared" si="3"/>
+        <v>15.295196424253421</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="4"/>
+        <v>12.768909503978746</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43935</v>
       </c>
@@ -2731,7 +4112,7 @@
         <v>87022</v>
       </c>
       <c r="F46">
-        <f t="shared" ref="F46:F87" si="3">E46-E45</f>
+        <f t="shared" ref="F46:F109" si="5">E46-E45</f>
         <v>3359</v>
       </c>
       <c r="G46">
@@ -2741,7 +4122,7 @@
         <v>2415</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" ref="I46:I87" si="4">H46-H45</f>
+        <f t="shared" ref="I46:I109" si="6">H46-H45</f>
         <v>143</v>
       </c>
       <c r="J46">
@@ -2768,8 +4149,16 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46">
+        <f t="shared" si="3"/>
+        <v>14.053468360677384</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="4"/>
+        <v>14.818296211665167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>43936</v>
       </c>
@@ -2786,7 +4175,7 @@
         <v>90515</v>
       </c>
       <c r="F47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3493</v>
       </c>
       <c r="G47">
@@ -2796,7 +4185,7 @@
         <v>2506</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="J47">
@@ -2823,8 +4212,16 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47">
+        <f t="shared" si="3"/>
+        <v>16.985153027881495</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="4"/>
+        <v>16.144282177599344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43937</v>
       </c>
@@ -2841,7 +4238,7 @@
         <v>95060</v>
       </c>
       <c r="F48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4545</v>
       </c>
       <c r="G48">
@@ -2851,7 +4248,7 @@
         <v>2605</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="J48">
@@ -2878,8 +4275,16 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48">
+        <f t="shared" si="3"/>
+        <v>16.28234270282589</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="4"/>
+        <v>14.665824708404463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43938</v>
       </c>
@@ -2896,7 +4301,7 @@
         <v>100827</v>
       </c>
       <c r="F49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5767</v>
       </c>
       <c r="G49">
@@ -2906,7 +4311,7 @@
         <v>2783</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>178</v>
       </c>
       <c r="J49">
@@ -2933,8 +4338,16 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49">
+        <f t="shared" si="3"/>
+        <v>14.122302810451643</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="4"/>
+        <v>15.047637698844557</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43939</v>
       </c>
@@ -2951,7 +4364,7 @@
         <v>108201</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7374</v>
       </c>
       <c r="G50">
@@ -2961,7 +4374,7 @@
         <v>3034</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>251</v>
       </c>
       <c r="J50">
@@ -2988,8 +4401,16 @@
       <c r="Q50">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50">
+        <f t="shared" si="3"/>
+        <v>11.651162559586037</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="4"/>
+        <v>13.475193082583353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>43940</v>
       </c>
@@ -3006,7 +4427,7 @@
         <v>114711</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6510</v>
       </c>
       <c r="G51">
@@ -3016,7 +4437,7 @@
         <v>3158</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>124</v>
       </c>
       <c r="J51">
@@ -3043,8 +4464,16 @@
       <c r="Q51">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51">
+        <f t="shared" si="3"/>
+        <v>11.066295221564761</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="4"/>
+        <v>12.545424974730977</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43941</v>
       </c>
@@ -3061,7 +4490,7 @@
         <v>121510</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6799</v>
       </c>
       <c r="G52">
@@ -3071,7 +4500,7 @@
         <v>3300</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>142</v>
       </c>
       <c r="J52">
@@ -3098,8 +4527,16 @@
       <c r="Q52">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R52">
+        <f t="shared" si="3"/>
+        <v>11.144419444326676</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="4"/>
+        <v>11.768963422685005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43942</v>
       </c>
@@ -3116,7 +4553,7 @@
         <v>126937</v>
       </c>
       <c r="F53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5427</v>
       </c>
       <c r="G53">
@@ -3126,7 +4563,7 @@
         <v>3465</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="J53">
@@ -3153,8 +4590,16 @@
       <c r="Q53">
         <v>26</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53">
+        <f t="shared" si="3"/>
+        <v>13.020900041630787</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="4"/>
+        <v>11.984592244476223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>43943</v>
       </c>
@@ -3171,7 +4616,7 @@
         <v>133774</v>
       </c>
       <c r="F54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6837</v>
       </c>
       <c r="G54">
@@ -3181,7 +4626,7 @@
         <v>3635</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="J54">
@@ -3208,8 +4653,16 @@
       <c r="Q54">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R54">
+        <f t="shared" si="3"/>
+        <v>13.526064584708621</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="4"/>
+        <v>12.257433900624996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43944</v>
       </c>
@@ -3226,7 +4679,7 @@
         <v>143570</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9796</v>
       </c>
       <c r="G55">
@@ -3236,7 +4689,7 @@
         <v>3953</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>318</v>
       </c>
       <c r="J55">
@@ -3263,8 +4716,16 @@
       <c r="Q55">
         <v>26</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55">
+        <f t="shared" si="3"/>
+        <v>12.464721190948609</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="4"/>
+        <v>12.253685986998496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>43945</v>
       </c>
@@ -3281,7 +4742,7 @@
         <v>152390</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8820</v>
       </c>
       <c r="G56">
@@ -3291,7 +4752,7 @@
         <v>4220</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>267</v>
       </c>
       <c r="J56">
@@ -3318,8 +4779,16 @@
       <c r="Q56">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R56">
+        <f t="shared" si="3"/>
+        <v>11.378480821692012</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="4"/>
+        <v>12.202130943625766</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43946</v>
       </c>
@@ -3336,7 +4805,7 @@
         <v>161004</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8614</v>
       </c>
       <c r="G57">
@@ -3346,7 +4815,7 @@
         <v>4361</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>141</v>
       </c>
       <c r="J57">
@@ -3373,8 +4842,16 @@
       <c r="Q57">
         <v>26</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57">
+        <f t="shared" si="3"/>
+        <v>11.22339547010225</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="4"/>
+        <v>12.314619326751826</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43947</v>
       </c>
@@ -3391,7 +4868,7 @@
         <v>168643</v>
       </c>
       <c r="F58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7639</v>
       </c>
       <c r="G58">
@@ -3401,7 +4878,7 @@
         <v>4546</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="J58">
@@ -3428,8 +4905,16 @@
       <c r="Q58">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R58">
+        <f t="shared" si="3"/>
+        <v>12.91888861004445</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="4"/>
+        <v>12.199293943331881</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43948</v>
       </c>
@@ -3446,7 +4931,7 @@
         <v>178470</v>
       </c>
       <c r="F59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9827</v>
       </c>
       <c r="G59">
@@ -3456,7 +4941,7 @@
         <v>4793</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>247</v>
       </c>
       <c r="J59">
@@ -3483,8 +4968,16 @@
       <c r="Q59">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R59">
+        <f t="shared" si="3"/>
+        <v>13.162897219258863</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="4"/>
+        <v>12.022587827492542</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43949</v>
       </c>
@@ -3501,7 +4994,7 @@
         <v>185497</v>
       </c>
       <c r="F60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7027</v>
       </c>
       <c r="G60">
@@ -3511,7 +5004,7 @@
         <v>4996</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="J60">
@@ -3538,8 +5031,16 @@
       <c r="Q60">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60">
+        <f t="shared" si="3"/>
+        <v>14.684336410289731</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="4"/>
+        <v>13.526618375970111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43950</v>
       </c>
@@ -3556,7 +5057,7 @@
         <v>197127</v>
       </c>
       <c r="F61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11630</v>
       </c>
       <c r="G61">
@@ -3566,7 +5067,7 @@
         <v>5350</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>354</v>
       </c>
       <c r="J61">
@@ -3593,8 +5094,16 @@
       <c r="Q61">
         <v>26</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61">
+        <f t="shared" si="3"/>
+        <v>13.324275413935567</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="4"/>
+        <v>13.464127152367842</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43951</v>
       </c>
@@ -3611,7 +5120,7 @@
         <v>207530</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10403</v>
       </c>
       <c r="G62">
@@ -3621,7 +5130,7 @@
         <v>5647</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>297</v>
       </c>
       <c r="J62">
@@ -3648,8 +5157,16 @@
       <c r="Q62">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R62">
+        <f t="shared" si="3"/>
+        <v>13.784337233629854</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="4"/>
+        <v>13.652869706746088</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43952</v>
       </c>
@@ -3666,7 +5183,7 @@
         <v>217522</v>
       </c>
       <c r="F63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9992</v>
       </c>
       <c r="G63">
@@ -3676,7 +5193,7 @@
         <v>5951</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>304</v>
       </c>
       <c r="J63">
@@ -3703,8 +5220,16 @@
       <c r="Q63">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63">
+        <f t="shared" si="3"/>
+        <v>13.056792374207923</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="4"/>
+        <v>13.616969889886869</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>43953</v>
       </c>
@@ -3721,7 +5246,7 @@
         <v>230686</v>
       </c>
       <c r="F64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13164</v>
       </c>
       <c r="G64">
@@ -3731,7 +5256,7 @@
         <v>6336</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>385</v>
       </c>
       <c r="J64">
@@ -3758,8 +5283,16 @@
       <c r="Q64">
         <v>26</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64">
+        <f t="shared" si="3"/>
+        <v>13.227218134780866</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="4"/>
+        <v>13.504430203993751</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>43954</v>
       </c>
@@ -3776,7 +5309,7 @@
         <v>245747</v>
       </c>
       <c r="F65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15061</v>
       </c>
       <c r="G65">
@@ -3786,7 +5319,7 @@
         <v>6783</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>447</v>
       </c>
       <c r="J65">
@@ -3813,8 +5346,16 @@
       <c r="Q65">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65">
+        <f t="shared" si="3"/>
+        <v>12.302448236690365</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="4"/>
+        <v>12.322010075411097</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>43955</v>
       </c>
@@ -3831,7 +5372,7 @@
         <v>257541</v>
       </c>
       <c r="F66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11794</v>
       </c>
       <c r="G66">
@@ -3841,7 +5382,7 @@
         <v>7220</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>437</v>
       </c>
       <c r="J66">
@@ -3868,8 +5409,16 @@
       <c r="Q66">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66">
+        <f t="shared" si="3"/>
+        <v>12.313208430159378</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="4"/>
+        <v>12.964225138005114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>43956</v>
       </c>
@@ -3886,7 +5435,7 @@
         <v>268064</v>
       </c>
       <c r="F67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10523</v>
       </c>
       <c r="G67">
@@ -3896,14 +5445,14 @@
         <v>7572</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>352</v>
       </c>
       <c r="J67">
         <v>148</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K87" si="5">H67-J67-G67</f>
+        <f t="shared" ref="K67:K115" si="7">H67-J67-G67</f>
         <v>4678</v>
       </c>
       <c r="L67">
@@ -3923,8 +5472,16 @@
       <c r="Q67">
         <v>26</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67">
+        <f t="shared" si="3"/>
+        <v>13.847408680079626</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="4"/>
+        <v>13.540683416016227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>43957</v>
       </c>
@@ -3941,7 +5498,7 @@
         <v>279379</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11315</v>
       </c>
       <c r="G68">
@@ -3951,22 +5508,22 @@
         <v>7808</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>236</v>
       </c>
       <c r="J68">
         <v>153</v>
       </c>
       <c r="K68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4502</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68:L87" si="6">G68-G67</f>
+        <f t="shared" ref="L68:L115" si="8">G68-G67</f>
         <v>407</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M87" si="7">J68-J67</f>
+        <f t="shared" ref="M68:M115" si="9">J68-J67</f>
         <v>5</v>
       </c>
       <c r="O68">
@@ -3978,8 +5535,16 @@
       <c r="Q68">
         <v>26</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68">
+        <f t="shared" si="3"/>
+        <v>16.211854099263768</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="4"/>
+        <v>13.848027144949953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>43958</v>
       </c>
@@ -3996,7 +5561,7 @@
         <v>292153</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12774</v>
       </c>
       <c r="G69">
@@ -4006,22 +5571,22 @@
         <v>8232</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>424</v>
       </c>
       <c r="J69">
         <v>161</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4918</v>
       </c>
       <c r="L69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O69">
@@ -4033,8 +5598,16 @@
       <c r="Q69">
         <v>26</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69">
+        <f t="shared" si="3"/>
+        <v>16.490585732104901</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="4"/>
+        <v>14.671634746157308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>43959</v>
       </c>
@@ -4051,7 +5624,7 @@
         <v>307752</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15599</v>
       </c>
       <c r="G70">
@@ -4061,22 +5634,22 @@
         <v>8895</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>663</v>
       </c>
       <c r="J70">
         <v>178</v>
       </c>
       <c r="K70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5564</v>
       </c>
       <c r="L70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="O70">
@@ -4088,8 +5661,16 @@
       <c r="Q70">
         <v>26</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70">
+        <f t="shared" ref="R70:R81" si="10">IF((E70/E67)&gt;1,3*0.301029995/LOG(E70/E67),0)</f>
+        <v>15.060940395047524</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="4"/>
+        <v>15.403838026672384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>43960</v>
       </c>
@@ -4106,7 +5687,7 @@
         <v>324079</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16327</v>
       </c>
       <c r="G71">
@@ -4116,22 +5697,22 @@
         <v>9420</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>525</v>
       </c>
       <c r="J71">
         <v>186</v>
       </c>
       <c r="K71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5251</v>
       </c>
       <c r="L71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>830</v>
       </c>
       <c r="M71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O71">
@@ -4143,8 +5724,16 @@
       <c r="Q71">
         <v>26</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71">
+        <f t="shared" si="10"/>
+        <v>14.010707007677633</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="4"/>
+        <v>15.080981195841265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>43961</v>
       </c>
@@ -4161,7 +5750,7 @@
         <v>341336</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17257</v>
       </c>
       <c r="G72">
@@ -4171,22 +5760,22 @@
         <v>10015</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>595</v>
       </c>
       <c r="J72">
         <v>194</v>
       </c>
       <c r="K72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5648</v>
       </c>
       <c r="L72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="M72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O72">
@@ -4198,8 +5787,16 @@
       <c r="Q72">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R72">
+        <f t="shared" si="10"/>
+        <v>13.364905564314144</v>
+      </c>
+      <c r="S72">
+        <f t="shared" ref="S72:S81" si="11">IF((E72/E67)&gt;1,5*0.301029995/LOG(E72/E67),0)</f>
+        <v>14.342465473361449</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>43962</v>
       </c>
@@ -4216,7 +5813,7 @@
         <v>356067</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14731</v>
       </c>
       <c r="G73" s="1">
@@ -4226,22 +5823,22 @@
         <v>10652</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>637</v>
       </c>
       <c r="J73">
         <v>206</v>
       </c>
       <c r="K73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6273</v>
       </c>
       <c r="L73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="O73">
@@ -4253,8 +5850,16 @@
       <c r="Q73">
         <v>26</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R73">
+        <f t="shared" si="10"/>
+        <v>14.259876603547228</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="11"/>
+        <v>14.288769931784669</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>43963</v>
       </c>
@@ -4271,7 +5876,7 @@
         <v>369697</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13630</v>
       </c>
       <c r="G74" s="1">
@@ -4281,22 +5886,22 @@
         <v>11350</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>698</v>
       </c>
       <c r="J74">
         <v>206</v>
       </c>
       <c r="K74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6971</v>
       </c>
       <c r="L74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O74">
@@ -4308,8 +5913,16 @@
       <c r="Q74">
         <v>26</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R74">
+        <f t="shared" si="10"/>
+        <v>15.789656643917166</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="11"/>
+        <v>14.722369960987285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>43964</v>
       </c>
@@ -4326,7 +5939,7 @@
         <v>386352</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16655</v>
       </c>
       <c r="G75">
@@ -4336,22 +5949,22 @@
         <v>12074</v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>724</v>
       </c>
       <c r="J75">
         <v>219</v>
       </c>
       <c r="K75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7110</v>
       </c>
       <c r="L75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>572</v>
       </c>
       <c r="M75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="O75">
@@ -4363,8 +5976,16 @@
       <c r="Q75">
         <v>26</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75">
+        <f t="shared" si="10"/>
+        <v>16.785725378638382</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="11"/>
+        <v>15.23704416411662</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>43965</v>
       </c>
@@ -4381,7 +6002,7 @@
         <v>403018</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16666</v>
       </c>
       <c r="G76">
@@ -4391,22 +6012,22 @@
         <v>12739</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>665</v>
       </c>
       <c r="J76">
         <v>238</v>
       </c>
       <c r="K76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6825</v>
       </c>
       <c r="L76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>931</v>
       </c>
       <c r="M76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="O76">
@@ -4418,8 +6039,16 @@
       <c r="Q76">
         <v>26</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76">
+        <f t="shared" si="10"/>
+        <v>16.788331555578743</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="11"/>
+        <v>15.89831501144106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>43966</v>
       </c>
@@ -4436,7 +6065,7 @@
         <v>421555</v>
       </c>
       <c r="F77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18537</v>
       </c>
       <c r="G77">
@@ -4446,22 +6075,22 @@
         <v>13524</v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>785</v>
       </c>
       <c r="J77">
         <v>247</v>
       </c>
       <c r="K77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7194</v>
       </c>
       <c r="L77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>407</v>
       </c>
       <c r="M77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O77">
@@ -4473,8 +6102,16 @@
       <c r="Q77">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R77">
+        <f t="shared" si="10"/>
+        <v>15.841372114671682</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="11"/>
+        <v>16.418835775543581</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>43967</v>
       </c>
@@ -4491,7 +6128,7 @@
         <v>439559</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18004</v>
       </c>
       <c r="G78">
@@ -4501,22 +6138,22 @@
         <v>14355</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>831</v>
       </c>
       <c r="J78">
         <v>261</v>
       </c>
       <c r="K78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7616</v>
       </c>
       <c r="L78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>395</v>
       </c>
       <c r="M78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="O78">
@@ -4528,8 +6165,16 @@
       <c r="Q78">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R78">
+        <f t="shared" si="10"/>
+        <v>16.116818232509175</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="11"/>
+        <v>16.452342477292667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>43968</v>
       </c>
@@ -4546,7 +6191,7 @@
         <v>460873</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21314</v>
       </c>
       <c r="G79">
@@ -4556,22 +6201,22 @@
         <v>15515</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1160</v>
       </c>
       <c r="J79">
         <v>264</v>
       </c>
       <c r="K79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8245</v>
       </c>
       <c r="L79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>528</v>
       </c>
       <c r="M79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O79">
@@ -4583,8 +6228,16 @@
       <c r="Q79">
         <v>26</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R79">
+        <f t="shared" si="10"/>
+        <v>15.501875085654948</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="11"/>
+        <v>15.721989203408384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>43969</v>
       </c>
@@ -4601,7 +6254,7 @@
         <v>475071</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14198</v>
       </c>
       <c r="G80">
@@ -4611,22 +6264,22 @@
         <v>16433</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>918</v>
       </c>
       <c r="J80">
         <v>286</v>
       </c>
       <c r="K80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8849</v>
       </c>
       <c r="L80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="M80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="O80">
@@ -4638,8 +6291,16 @@
       <c r="Q80">
         <v>26</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R80">
+        <f t="shared" si="10"/>
+        <v>17.399144377709408</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="11"/>
+        <v>16.765736709070417</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>43970</v>
       </c>
@@ -4656,7 +6317,7 @@
         <v>488609</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13538</v>
       </c>
       <c r="G81">
@@ -4666,22 +6327,22 @@
         <v>17200</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>767</v>
       </c>
       <c r="J81">
         <v>312</v>
       </c>
       <c r="K81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8928</v>
       </c>
       <c r="L81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>662</v>
       </c>
       <c r="M81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="O81">
@@ -4693,8 +6354,16 @@
       <c r="Q81">
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R81">
+        <f t="shared" si="10"/>
+        <v>19.656198237683601</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="11"/>
+        <v>17.996217427830441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>43971</v>
       </c>
@@ -4711,7 +6380,7 @@
         <v>505861</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17252</v>
       </c>
       <c r="G82">
@@ -4721,26 +6390,34 @@
         <v>18003</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>803</v>
       </c>
       <c r="J82">
         <v>339</v>
       </c>
       <c r="K82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8714</v>
       </c>
       <c r="L82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>990</v>
       </c>
       <c r="M82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R82">
+        <f t="shared" ref="R82:R115" si="12">IF((E82/E79)&gt;1,3*0.301029995/LOG(E82/E79),0)</f>
+        <v>22.326118603795017</v>
+      </c>
+      <c r="S82">
+        <f t="shared" ref="S82:S115" si="13">IF((E82/E77)&gt;1,5*0.301029995/LOG(E82/E77),0)</f>
+        <v>19.009950617751052</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>43972</v>
       </c>
@@ -4757,7 +6434,7 @@
         <v>525433</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19572</v>
       </c>
       <c r="G83">
@@ -4767,26 +6444,34 @@
         <v>19137</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1134</v>
       </c>
       <c r="J83">
         <v>369</v>
       </c>
       <c r="K83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9818</v>
       </c>
       <c r="L83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R83">
+        <f t="shared" si="12"/>
+        <v>20.637893865238574</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="13"/>
+        <v>19.421247741723199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>43973</v>
       </c>
@@ -4803,7 +6488,7 @@
         <v>543032</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17599</v>
       </c>
       <c r="G84">
@@ -4813,26 +6498,34 @@
         <v>20125</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>988</v>
       </c>
       <c r="J84">
         <v>397</v>
       </c>
       <c r="K84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9624</v>
       </c>
       <c r="L84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1154</v>
       </c>
       <c r="M84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R84">
+        <f t="shared" si="12"/>
+        <v>19.690623703940958</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="13"/>
+        <v>21.126644564280809</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>43974</v>
       </c>
@@ -4849,7 +6542,7 @@
         <v>564370</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21338</v>
       </c>
       <c r="G85">
@@ -4859,26 +6552,34 @@
         <v>21343</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1218</v>
       </c>
       <c r="J85">
         <v>407</v>
       </c>
       <c r="K85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10832</v>
       </c>
       <c r="L85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R85">
+        <f t="shared" si="12"/>
+        <v>18.999332453081209</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="13"/>
+        <v>20.12087337316289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>43975</v>
       </c>
@@ -4895,7 +6596,7 @@
         <v>583855</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19485</v>
       </c>
       <c r="G86">
@@ -4905,22 +6606,22 @@
         <v>22583</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1240</v>
       </c>
       <c r="J86">
         <v>429</v>
       </c>
       <c r="K86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11054</v>
       </c>
       <c r="L86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>996</v>
       </c>
       <c r="M86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="O86">
@@ -4929,8 +6630,16 @@
       <c r="P86">
         <v>128</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R86">
+        <f t="shared" si="12"/>
+        <v>19.723436747314803</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="13"/>
+        <v>19.460577390094457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>43976</v>
       </c>
@@ -4947,7 +6656,7 @@
         <v>596777</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12922</v>
       </c>
       <c r="G87">
@@ -4957,22 +6666,22 @@
         <v>23615</v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1032</v>
       </c>
       <c r="J87">
         <v>481</v>
       </c>
       <c r="K87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11217</v>
       </c>
       <c r="L87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>817</v>
       </c>
       <c r="M87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="O87">
@@ -4980,10 +6689,1531 @@
       </c>
       <c r="P87">
         <v>128</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="12"/>
+        <v>22.033757092503468</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="13"/>
+        <v>20.968675809493575</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>43977</v>
+      </c>
+      <c r="B88" s="3">
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <v>20200526</v>
+      </c>
+      <c r="D88">
+        <v>86</v>
+      </c>
+      <c r="E88">
+        <v>605991</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>9214</v>
+      </c>
+      <c r="G88">
+        <v>12741</v>
+      </c>
+      <c r="H88" s="2">
+        <v>24264</v>
+      </c>
+      <c r="I88" s="2">
+        <f t="shared" si="6"/>
+        <v>649</v>
+      </c>
+      <c r="J88">
+        <v>524</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>10999</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="8"/>
+        <v>824</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="12"/>
+        <v>29.224081233746674</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="13"/>
+        <v>24.296665525740789</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B89" s="3">
+        <v>87</v>
+      </c>
+      <c r="C89">
+        <v>20200527</v>
+      </c>
+      <c r="D89">
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <v>634996</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="5"/>
+        <v>29005</v>
+      </c>
+      <c r="G89">
+        <v>13451</v>
+      </c>
+      <c r="H89" s="2">
+        <v>25937</v>
+      </c>
+      <c r="I89" s="2">
+        <f t="shared" si="6"/>
+        <v>1673</v>
+      </c>
+      <c r="J89">
+        <v>552</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>11934</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="8"/>
+        <v>710</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="12"/>
+        <v>24.765270015160805</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="13"/>
+        <v>22.152291054174555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>43979</v>
+      </c>
+      <c r="B90" s="3">
+        <v>88</v>
+      </c>
+      <c r="C90">
+        <v>20200528</v>
+      </c>
+      <c r="D90">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <v>655723</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>20727</v>
+      </c>
+      <c r="G90">
+        <v>14370</v>
+      </c>
+      <c r="H90" s="2">
+        <v>27403</v>
+      </c>
+      <c r="I90" s="2">
+        <f t="shared" si="6"/>
+        <v>1466</v>
+      </c>
+      <c r="J90">
+        <v>577</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>12456</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="8"/>
+        <v>919</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="12"/>
+        <v>22.075938057327949</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="13"/>
+        <v>23.100535516247259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>43980</v>
+      </c>
+      <c r="B91" s="3">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <v>20200529</v>
+      </c>
+      <c r="D91">
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <v>680175</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>24452</v>
+      </c>
+      <c r="G91">
+        <v>15093</v>
+      </c>
+      <c r="H91" s="2">
+        <v>29240</v>
+      </c>
+      <c r="I91" s="2">
+        <f t="shared" si="6"/>
+        <v>1837</v>
+      </c>
+      <c r="J91">
+        <v>611</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>13536</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="8"/>
+        <v>723</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="12"/>
+        <v>18.006163862781097</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="13"/>
+        <v>22.696749760948165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B92" s="3">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <v>20200530</v>
+      </c>
+      <c r="D92">
+        <v>90</v>
+      </c>
+      <c r="E92">
+        <v>701883</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="5"/>
+        <v>21708</v>
+      </c>
+      <c r="G92">
+        <v>16116</v>
+      </c>
+      <c r="H92" s="2">
+        <v>30967</v>
+      </c>
+      <c r="I92" s="2">
+        <f t="shared" si="6"/>
+        <v>1727</v>
+      </c>
+      <c r="J92">
+        <v>643</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="7"/>
+        <v>14208</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="8"/>
+        <v>1023</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="12"/>
+        <v>20.763680180752363</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="13"/>
+        <v>21.363994742283619</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B93" s="3">
+        <v>91</v>
+      </c>
+      <c r="C93">
+        <v>20200531</v>
+      </c>
+      <c r="D93">
+        <v>91</v>
+      </c>
+      <c r="E93">
+        <v>725125</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="5"/>
+        <v>23242</v>
+      </c>
+      <c r="G93">
+        <v>16809</v>
+      </c>
+      <c r="H93" s="2">
+        <v>32683</v>
+      </c>
+      <c r="I93" s="2">
+        <f t="shared" si="6"/>
+        <v>1716</v>
+      </c>
+      <c r="J93">
+        <v>683</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="7"/>
+        <v>15191</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="8"/>
+        <v>693</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="12"/>
+        <v>20.669240360633054</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="13"/>
+        <v>19.309988651781136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>43983</v>
+      </c>
+      <c r="B94" s="3">
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <v>20200601</v>
+      </c>
+      <c r="D94">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <v>742742</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="5"/>
+        <v>17617</v>
+      </c>
+      <c r="G94">
+        <v>17291</v>
+      </c>
+      <c r="H94" s="2">
+        <v>34357</v>
+      </c>
+      <c r="I94" s="2">
+        <f t="shared" si="6"/>
+        <v>1674</v>
+      </c>
+      <c r="J94">
+        <v>705</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="7"/>
+        <v>16361</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="8"/>
+        <v>482</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="12"/>
+        <v>23.630386557837745</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="13"/>
+        <v>22.112773085731671</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>43984</v>
+      </c>
+      <c r="B95" s="3">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>20200602</v>
+      </c>
+      <c r="D95">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <v>761534</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="5"/>
+        <v>18792</v>
+      </c>
+      <c r="G95">
+        <v>18313</v>
+      </c>
+      <c r="H95" s="2">
+        <v>35812</v>
+      </c>
+      <c r="I95" s="2">
+        <f t="shared" si="6"/>
+        <v>1455</v>
+      </c>
+      <c r="J95">
+        <v>755</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="7"/>
+        <v>16744</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="8"/>
+        <v>1022</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="12"/>
+        <v>25.493319374123189</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="13"/>
+        <v>23.167244948461342</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B96" s="3">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <v>20200603</v>
+      </c>
+      <c r="D96">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <v>785979</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="5"/>
+        <v>24445</v>
+      </c>
+      <c r="G96">
+        <v>19682</v>
+      </c>
+      <c r="H96" s="2">
+        <v>37525</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="6"/>
+        <v>1713</v>
+      </c>
+      <c r="J96">
+        <v>792</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="7"/>
+        <v>17051</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="8"/>
+        <v>1369</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="12"/>
+        <v>25.803998240477789</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="13"/>
+        <v>23.97106748912811</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>43986</v>
+      </c>
+      <c r="B97" s="3">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>20200604</v>
+      </c>
+      <c r="D97">
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <v>820675</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="5"/>
+        <v>34696</v>
+      </c>
+      <c r="G97">
+        <v>21311</v>
+      </c>
+      <c r="H97" s="2">
+        <v>40792</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="6"/>
+        <v>3267</v>
+      </c>
+      <c r="J97">
+        <v>848</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="7"/>
+        <v>18633</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="8"/>
+        <v>1629</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="12"/>
+        <v>20.840592106291943</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="13"/>
+        <v>22.165041859950882</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>43987</v>
+      </c>
+      <c r="B98" s="3">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>20200605</v>
+      </c>
+      <c r="D98">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <v>850871</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="5"/>
+        <v>30196</v>
+      </c>
+      <c r="G98">
+        <v>23088</v>
+      </c>
+      <c r="H98" s="2">
+        <v>43434</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" si="6"/>
+        <v>2642</v>
+      </c>
+      <c r="J98">
+        <v>908</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="7"/>
+        <v>19438</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="8"/>
+        <v>1777</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="12"/>
+        <v>18.746253909915012</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="13"/>
+        <v>21.672162629747262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>43988</v>
+      </c>
+      <c r="B99" s="3">
+        <v>97</v>
+      </c>
+      <c r="C99">
+        <v>20200606</v>
+      </c>
+      <c r="D99">
+        <v>97</v>
+      </c>
+      <c r="E99">
+        <v>891668</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="5"/>
+        <v>40797</v>
+      </c>
+      <c r="G99">
+        <v>24258</v>
+      </c>
+      <c r="H99" s="2">
+        <v>45973</v>
+      </c>
+      <c r="I99" s="2">
+        <f t="shared" si="6"/>
+        <v>2539</v>
+      </c>
+      <c r="J99">
+        <v>952</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="7"/>
+        <v>20763</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="8"/>
+        <v>1170</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="12"/>
+        <v>16.482078675791033</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="13"/>
+        <v>18.964861266773781</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>43989</v>
+      </c>
+      <c r="B100" s="3">
+        <v>98</v>
+      </c>
+      <c r="C100">
+        <v>20200607</v>
+      </c>
+      <c r="D100">
+        <v>98</v>
+      </c>
+      <c r="E100">
+        <v>920064</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="5"/>
+        <v>28396</v>
+      </c>
+      <c r="G100">
+        <v>24364</v>
+      </c>
+      <c r="H100" s="2">
+        <v>48285</v>
+      </c>
+      <c r="I100" s="2">
+        <f t="shared" si="6"/>
+        <v>2312</v>
+      </c>
+      <c r="J100">
+        <v>998</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="7"/>
+        <v>22923</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="8"/>
+        <v>106</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="12"/>
+        <v>18.190283399736813</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="13"/>
+        <v>18.326714523990137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>43990</v>
+      </c>
+      <c r="B101" s="3">
+        <v>99</v>
+      </c>
+      <c r="C101">
+        <v>20200608</v>
+      </c>
+      <c r="D101">
+        <v>99</v>
+      </c>
+      <c r="E101">
+        <v>943059</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="5"/>
+        <v>22995</v>
+      </c>
+      <c r="G101">
+        <v>26099</v>
+      </c>
+      <c r="H101" s="2">
+        <v>50879</v>
+      </c>
+      <c r="I101" s="2">
+        <f t="shared" si="6"/>
+        <v>2594</v>
+      </c>
+      <c r="J101">
+        <v>1080</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="7"/>
+        <v>23700</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="8"/>
+        <v>1735</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="12"/>
+        <v>20.214596807825675</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="13"/>
+        <v>19.02173021672974</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>43991</v>
+      </c>
+      <c r="B102" s="3">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>20200609</v>
+      </c>
+      <c r="D102">
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <v>968070</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="5"/>
+        <v>25011</v>
+      </c>
+      <c r="G102">
+        <v>29006</v>
+      </c>
+      <c r="H102" s="2">
+        <v>52991</v>
+      </c>
+      <c r="I102" s="2">
+        <f t="shared" si="6"/>
+        <v>2112</v>
+      </c>
+      <c r="J102">
+        <v>1162</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="7"/>
+        <v>22823</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="8"/>
+        <v>2907</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="12"/>
+        <v>25.294101232543031</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="13"/>
+        <v>20.981923307054391</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>43992</v>
+      </c>
+      <c r="B103" s="3">
+        <v>101</v>
+      </c>
+      <c r="C103">
+        <v>20200610</v>
+      </c>
+      <c r="D103">
+        <v>101</v>
+      </c>
+      <c r="E103">
+        <v>998400</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="5"/>
+        <v>30330</v>
+      </c>
+      <c r="G103">
+        <v>31505</v>
+      </c>
+      <c r="H103" s="2">
+        <v>55421</v>
+      </c>
+      <c r="I103" s="2">
+        <f t="shared" si="6"/>
+        <v>2430</v>
+      </c>
+      <c r="J103">
+        <v>1210</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="7"/>
+        <v>22706</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="8"/>
+        <v>2499</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="12"/>
+        <v>25.448807667370435</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="13"/>
+        <v>21.675281437847271</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B104" s="3">
+        <v>102</v>
+      </c>
+      <c r="C104">
+        <v>20200611</v>
+      </c>
+      <c r="D104">
+        <v>102</v>
+      </c>
+      <c r="E104">
+        <v>1028399</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="5"/>
+        <v>29999</v>
+      </c>
+      <c r="G104">
+        <v>31505</v>
+      </c>
+      <c r="H104" s="2">
+        <v>58568</v>
+      </c>
+      <c r="I104" s="2">
+        <f t="shared" si="6"/>
+        <v>3147</v>
+      </c>
+      <c r="J104">
+        <v>1284</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="7"/>
+        <v>25779</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="12"/>
+        <v>24.003806916007566</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="13"/>
+        <v>24.292886923996154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B105" s="3">
+        <v>103</v>
+      </c>
+      <c r="C105">
+        <v>20200612</v>
+      </c>
+      <c r="D105">
+        <v>103</v>
+      </c>
+      <c r="E105">
+        <v>1060425</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="5"/>
+        <v>32026</v>
+      </c>
+      <c r="G105">
+        <v>35008</v>
+      </c>
+      <c r="H105" s="2">
+        <v>61927</v>
+      </c>
+      <c r="I105" s="2">
+        <f t="shared" si="6"/>
+        <v>3359</v>
+      </c>
+      <c r="J105">
+        <v>1354</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="7"/>
+        <v>25565</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="8"/>
+        <v>3503</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="12"/>
+        <v>22.820749241357198</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="13"/>
+        <v>24.409716405505225</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>43995</v>
+      </c>
+      <c r="B106" s="3">
+        <v>104</v>
+      </c>
+      <c r="C106">
+        <v>20200613</v>
+      </c>
+      <c r="D106">
+        <v>104</v>
+      </c>
+      <c r="E106">
+        <v>1087887</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="5"/>
+        <v>27462</v>
+      </c>
+      <c r="G106">
+        <v>36850</v>
+      </c>
+      <c r="H106" s="2">
+        <v>65736</v>
+      </c>
+      <c r="I106" s="2">
+        <f t="shared" si="6"/>
+        <v>3809</v>
+      </c>
+      <c r="J106">
+        <v>1423</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="7"/>
+        <v>27463</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="8"/>
+        <v>1842</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="12"/>
+        <v>24.225027044508398</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="13"/>
+        <v>24.25903526758005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>43996</v>
+      </c>
+      <c r="B107" s="3">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <v>20200614</v>
+      </c>
+      <c r="D107">
+        <v>105</v>
+      </c>
+      <c r="E107">
+        <v>1121958</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="5"/>
+        <v>34071</v>
+      </c>
+      <c r="G107">
+        <v>38531</v>
+      </c>
+      <c r="H107" s="2">
+        <v>70038</v>
+      </c>
+      <c r="I107" s="2">
+        <f t="shared" si="6"/>
+        <v>4302</v>
+      </c>
+      <c r="J107">
+        <v>1480</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="7"/>
+        <v>30027</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="8"/>
+        <v>1681</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="12"/>
+        <v>23.881821635531892</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="13"/>
+        <v>23.49233314459557</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>43997</v>
+      </c>
+      <c r="B108" s="3">
+        <v>106</v>
+      </c>
+      <c r="C108">
+        <v>20200615</v>
+      </c>
+      <c r="D108">
+        <v>106</v>
+      </c>
+      <c r="E108">
+        <v>1148933</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="5"/>
+        <v>26975</v>
+      </c>
+      <c r="G108">
+        <v>39867</v>
+      </c>
+      <c r="H108" s="2">
+        <v>73533</v>
+      </c>
+      <c r="I108" s="2">
+        <f t="shared" si="6"/>
+        <v>3495</v>
+      </c>
+      <c r="J108">
+        <v>1568</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="7"/>
+        <v>32098</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="8"/>
+        <v>1336</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="12"/>
+        <v>25.939870226518817</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="13"/>
+        <v>24.678582337608354</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B109" s="3">
+        <v>107</v>
+      </c>
+      <c r="C109">
+        <v>20200616</v>
+      </c>
+      <c r="D109">
+        <v>107</v>
+      </c>
+      <c r="E109">
+        <v>1172513</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="5"/>
+        <v>23580</v>
+      </c>
+      <c r="G109">
+        <v>42063</v>
+      </c>
+      <c r="H109" s="2">
+        <v>76334</v>
+      </c>
+      <c r="I109" s="2">
+        <f t="shared" si="6"/>
+        <v>2801</v>
+      </c>
+      <c r="J109">
+        <v>1625</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="7"/>
+        <v>32646</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="8"/>
+        <v>2196</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="12"/>
+        <v>27.758447468110511</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="13"/>
+        <v>26.426529650673853</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>43999</v>
+      </c>
+      <c r="B110" s="3">
+        <v>108</v>
+      </c>
+      <c r="C110">
+        <v>20200617</v>
+      </c>
+      <c r="D110">
+        <v>108</v>
+      </c>
+      <c r="E110">
+        <v>1207360</v>
+      </c>
+      <c r="F110">
+        <f t="shared" ref="F110:F115" si="14">E110-E109</f>
+        <v>34847</v>
+      </c>
+      <c r="G110">
+        <v>44331</v>
+      </c>
+      <c r="H110" s="2">
+        <v>80412</v>
+      </c>
+      <c r="I110" s="2">
+        <f t="shared" ref="I110:I115" si="15">H110-H109</f>
+        <v>4078</v>
+      </c>
+      <c r="J110">
+        <v>1674</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="7"/>
+        <v>34407</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="8"/>
+        <v>2268</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="12"/>
+        <v>28.34541028802191</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="13"/>
+        <v>26.707500957385516</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B111" s="3">
+        <v>109</v>
+      </c>
+      <c r="C111">
+        <v>20200618</v>
+      </c>
+      <c r="D111">
+        <v>109</v>
+      </c>
+      <c r="E111">
+        <v>1228098</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="14"/>
+        <v>20738</v>
+      </c>
+      <c r="G111">
+        <v>44920</v>
+      </c>
+      <c r="H111" s="2">
+        <v>83890</v>
+      </c>
+      <c r="I111" s="2">
+        <f t="shared" si="15"/>
+        <v>3478</v>
+      </c>
+      <c r="J111">
+        <v>1737</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="7"/>
+        <v>37233</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="8"/>
+        <v>589</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="12"/>
+        <v>31.207408305039102</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="13"/>
+        <v>28.588258059428938</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>44001</v>
+      </c>
+      <c r="B112" s="3">
+        <v>110</v>
+      </c>
+      <c r="C112">
+        <v>20200619</v>
+      </c>
+      <c r="D112">
+        <v>110</v>
+      </c>
+      <c r="E112">
+        <v>1260434</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="14"/>
+        <v>32336</v>
+      </c>
+      <c r="G112">
+        <v>47825</v>
+      </c>
+      <c r="H112" s="2">
+        <v>87715</v>
+      </c>
+      <c r="I112" s="2">
+        <f t="shared" si="15"/>
+        <v>3825</v>
+      </c>
+      <c r="J112">
+        <v>1831</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="7"/>
+        <v>38059</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="8"/>
+        <v>2905</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="12"/>
+        <v>28.758589949526179</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="13"/>
+        <v>29.779292586628117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B113" s="3">
+        <v>111</v>
+      </c>
+      <c r="C113">
+        <v>20200620</v>
+      </c>
+      <c r="D113">
+        <v>111</v>
+      </c>
+      <c r="E113">
+        <v>1293608</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="14"/>
+        <v>33174</v>
+      </c>
+      <c r="G113">
+        <v>50326</v>
+      </c>
+      <c r="H113" s="2">
+        <v>92681</v>
+      </c>
+      <c r="I113" s="2">
+        <f t="shared" si="15"/>
+        <v>4966</v>
+      </c>
+      <c r="J113">
+        <v>1877</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="7"/>
+        <v>40478</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="8"/>
+        <v>2501</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="12"/>
+        <v>30.137246288331443</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="13"/>
+        <v>29.221679979152537</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>44003</v>
+      </c>
+      <c r="B114" s="3">
+        <v>112</v>
+      </c>
+      <c r="C114">
+        <v>20200621</v>
+      </c>
+      <c r="D114">
+        <v>112</v>
+      </c>
+      <c r="E114">
+        <v>1328060</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="14"/>
+        <v>34452</v>
+      </c>
+      <c r="G114">
+        <v>51608</v>
+      </c>
+      <c r="H114" s="2">
+        <v>97302</v>
+      </c>
+      <c r="I114" s="2">
+        <f t="shared" si="15"/>
+        <v>4621</v>
+      </c>
+      <c r="J114">
+        <v>1930</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="7"/>
+        <v>43764</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="8"/>
+        <v>1282</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="12"/>
+        <v>26.573449907699832</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="13"/>
+        <v>27.821610849977624</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B115" s="3">
+        <v>113</v>
+      </c>
+      <c r="C115">
+        <v>20200622</v>
+      </c>
+      <c r="D115">
+        <v>113</v>
+      </c>
+      <c r="E115">
+        <v>1353176</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="14"/>
+        <v>25116</v>
+      </c>
+      <c r="G115">
+        <v>53444</v>
+      </c>
+      <c r="H115" s="2">
+        <v>101590</v>
+      </c>
+      <c r="I115" s="2">
+        <f t="shared" si="15"/>
+        <v>4288</v>
+      </c>
+      <c r="J115">
+        <v>1991</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="7"/>
+        <v>46155</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="8"/>
+        <v>1836</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="12"/>
+        <v>29.28860367854244</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="13"/>
+        <v>30.39632218911353</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>